--- a/medicine/Enfance/Axel_Vachon/Axel_Vachon.xlsx
+++ b/medicine/Enfance/Axel_Vachon/Axel_Vachon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Axel Vachon, né en 1956[1], est un auteur français de romans de jeunesse[2], dans la lignée des Signe de Piste, pour la collection Défi aux éditions Pierre Téqui.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Axel Vachon, né en 1956, est un auteur français de romans de jeunesse, dans la lignée des Signe de Piste, pour la collection Défi aux éditions Pierre Téqui.
 Son premier manuscrit intitulé La Mort Blanche est publié parles éditions Tarmeye sous le titre La paix n'est qu'un Sursis. C'est l'histoire d'une jeune Gauloise au temps de la conquête de la Gaule par Jules César. La Séquanie est tombé entre les mains des Germains et les Romains trouvent là un bon prétexte pour entrer en Gaule.
 Puis Axel Vachon se tourne vers les éditions Pierre Téqui pour son second roman Le Piège des Cinquantièmes hurlants, premier de la trilogie des 50° hurlants qui traite du naufrage, puis de l'installation de jeunes adolescents sur l'île de Kerguelen, possession française sub-antarctique. Le tome 2, Les Seigneurs rebelles et le tome 3, Le Chemin des Glaces complètent cette trilogie. Deux autres livres suivent sur le Canada français du temps des premiers colons, Les Colons de Nouvelle-France 1 et 2.Il s'agit des Diamants du Canada et de La Ceinture de Perles. Il publie alors chez Téqui, dans la collection Défi qu'il dirige pendant quelques années avec Laure Angélis, Les Paladins de Mongré. Ce livre décrit la rencontre entre des collégiens et les anges gardiens d'un collège prestigieux : lycée Notre-Dame de Mongré. Élevés au rang de paladins, les adolescents vont défier les diablotins qui veulent nuire à la bonne marche de l'établissement. En octobre 2019 sort Mihiel, la seconde Sagesse qui met en scène un bébé. Cette petite fille, Mihiel, par sa simple présence change l'existence de ceux qu'elle côtoie. À la suite de la mort tragique de ses parents, elle est adoptée par ses oncle et tante, Dagobert et Corolle Tiaide. Ceux-ci ne se doutent pas à quel point ils vont évoluer, passant d'une petite existence tranquille et sans histoire à une vie plus engagée contre les forces du mal. Des adolescents viennent à leur aide et à leur tout défient Satanaesh.
 Mihiel, La Seconde Sagesse et Opération Jehanne d'Arc sont respectivement les tomes 1 et 2. L'éditeur Téqui ayant sorti le tome 2 de la collection Défi, certains lecteurs ne peuvent plus faire le lien entre les deux tomes. La Seconde Sagesse traite de l'enfance de Mihiel et Opération Jehanne d'Arc raconte sa vie lycéenne. Les deux tomes peuvent se lire séparément sans difficulté.
@@ -515,7 +527,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Contes et merveilles de Noël, éditions Tempora. Novembre 2009.
 Les Paladins de Mongré, éditions Téqui, « coll. Défi ». Octobre 2012.
